--- a/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_4_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1362861.812322391</v>
+        <v>1352411.764942552</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12244790.98632948</v>
+        <v>12244790.98632947</v>
       </c>
     </row>
     <row r="8">
@@ -662,13 +662,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>284.1490456397988</v>
+        <v>389.0844479550147</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +820,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2004248519413</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>146.6016736209833</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.677628790105</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>61.03269750657407</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>98.15366458399242</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.0316841869443</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>57.09791961948127</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1388,7 +1388,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396307</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1537,10 +1537,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>140.5477243251685</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.09512187520968</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1588,13 +1588,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>64.5061739446522</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,7 +1822,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>246.3391035627059</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026559</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.283897344658</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6817749316119</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>76.23344771991884</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2068,7 +2068,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068488</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2096,7 +2096,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407046</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>86.03250079605525</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2254,10 +2254,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2296,7 +2296,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2305,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.423577338805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2536,10 +2536,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>67.45468936580224</v>
       </c>
       <c r="X25" t="n">
-        <v>110.7195227355938</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,16 +2722,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>19.67318529421114</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,19 +2767,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>148.1226376070089</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>34.64527065408355</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3016,7 +3016,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.3148305656251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.1668213893228</v>
+        <v>178.166821389323</v>
       </c>
       <c r="C34" t="n">
-        <v>160.1553498542509</v>
+        <v>160.1553498542512</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.6870259663359</v>
       </c>
       <c r="F34" t="n">
-        <v>160.045668847563</v>
+        <v>160.0456688475632</v>
       </c>
       <c r="G34" t="n">
-        <v>19.48437056891176</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>88.67339494150458</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.4707395440766</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3362093704343</v>
+        <v>158.3362093704345</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8084666607368</v>
+        <v>230.808466660737</v>
       </c>
       <c r="U34" t="n">
-        <v>267.2851163790766</v>
+        <v>267.2851163790768</v>
       </c>
       <c r="V34" t="n">
-        <v>268.7968650824292</v>
+        <v>268.7968650824294</v>
       </c>
       <c r="W34" t="n">
-        <v>262.0063921535899</v>
+        <v>262.0063921535901</v>
       </c>
       <c r="X34" t="n">
-        <v>230.0407699530307</v>
+        <v>230.0407699530309</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9818529915332</v>
+        <v>213.9818529915334</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6210704138053</v>
+        <v>364.6210704138062</v>
       </c>
       <c r="H35" t="n">
         <v>259.2150933680659</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295134</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T35" t="n">
         <v>183.0417138731735</v>
@@ -3427,7 +3427,7 @@
         <v>134.5782361172335</v>
       </c>
       <c r="D37" t="n">
-        <v>126.0090037718573</v>
+        <v>126.0090037718574</v>
       </c>
       <c r="E37" t="n">
         <v>128.8715224160353</v>
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448713</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705892</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S37" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T37" t="n">
-        <v>205.2313529237193</v>
+        <v>205.2313529237194</v>
       </c>
       <c r="U37" t="n">
         <v>241.7080026420591</v>
@@ -3487,7 +3487,7 @@
         <v>236.4292784165725</v>
       </c>
       <c r="X37" t="n">
-        <v>204.4636562160132</v>
+        <v>204.4636562160133</v>
       </c>
       <c r="Y37" t="n">
         <v>188.4047392545157</v>
@@ -3515,7 +3515,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G38" t="n">
-        <v>364.6210704138053</v>
+        <v>364.6210704138062</v>
       </c>
       <c r="H38" t="n">
         <v>259.2150933680659</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295134</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T38" t="n">
         <v>183.0417138731735</v>
       </c>
       <c r="U38" t="n">
-        <v>220.0967589369122</v>
+        <v>220.0967589369114</v>
       </c>
       <c r="V38" t="n">
         <v>318.2399193523734</v>
@@ -3664,7 +3664,7 @@
         <v>134.5782361172335</v>
       </c>
       <c r="D40" t="n">
-        <v>126.0090037718573</v>
+        <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
         <v>128.8715224160353</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448713</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705892</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T40" t="n">
-        <v>205.2313529237193</v>
+        <v>205.2313529237194</v>
       </c>
       <c r="U40" t="n">
         <v>241.7080026420591</v>
@@ -3724,7 +3724,7 @@
         <v>236.4292784165725</v>
       </c>
       <c r="X40" t="n">
-        <v>204.4636562160132</v>
+        <v>204.4636562160133</v>
       </c>
       <c r="Y40" t="n">
         <v>188.4047392545157</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.9752792759751</v>
+        <v>379.975279275975</v>
       </c>
       <c r="C41" t="n">
         <v>386.9571213141932</v>
@@ -3746,16 +3746,16 @@
         <v>383.38509323421</v>
       </c>
       <c r="E41" t="n">
-        <v>386.0425690809814</v>
+        <v>386.0425690809813</v>
       </c>
       <c r="F41" t="n">
-        <v>385.1983386198541</v>
+        <v>385.198338619854</v>
       </c>
       <c r="G41" t="n">
-        <v>364.6210704138062</v>
+        <v>364.6210704138061</v>
       </c>
       <c r="H41" t="n">
-        <v>259.2150933680659</v>
+        <v>259.2150933680658</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295134</v>
+        <v>67.64901981295131</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3797,13 +3797,13 @@
         <v>220.0967589369122</v>
       </c>
       <c r="V41" t="n">
-        <v>318.2399193523734</v>
+        <v>318.2399193523733</v>
       </c>
       <c r="W41" t="n">
         <v>356.7528348300169</v>
       </c>
       <c r="X41" t="n">
-        <v>371.9281974712906</v>
+        <v>371.9281974712905</v>
       </c>
       <c r="Y41" t="n">
         <v>365.6092959720189</v>
@@ -3913,10 +3913,10 @@
         <v>128.9197986360705</v>
       </c>
       <c r="H43" t="n">
-        <v>106.6837044342879</v>
+        <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448713</v>
+        <v>63.09628120448711</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705892</v>
+        <v>10.8936258070589</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -3955,10 +3955,10 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V43" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454127</v>
       </c>
       <c r="W43" t="n">
-        <v>236.4292784165725</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X43" t="n">
         <v>204.4636562160132</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>379.9752792759751</v>
+        <v>379.975279275975</v>
       </c>
       <c r="C44" t="n">
         <v>386.9571213141932</v>
@@ -3983,16 +3983,16 @@
         <v>383.38509323421</v>
       </c>
       <c r="E44" t="n">
-        <v>386.0425690809814</v>
+        <v>386.0425690809813</v>
       </c>
       <c r="F44" t="n">
-        <v>385.1983386198541</v>
+        <v>385.198338619854</v>
       </c>
       <c r="G44" t="n">
-        <v>364.6210704138062</v>
+        <v>364.6210704138061</v>
       </c>
       <c r="H44" t="n">
-        <v>259.2150933680659</v>
+        <v>259.2150933680658</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295134</v>
+        <v>67.64901981295131</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4034,13 +4034,13 @@
         <v>220.0967589369122</v>
       </c>
       <c r="V44" t="n">
-        <v>318.2399193523734</v>
+        <v>318.2399193523733</v>
       </c>
       <c r="W44" t="n">
-        <v>356.7528348300161</v>
+        <v>356.7528348300169</v>
       </c>
       <c r="X44" t="n">
-        <v>371.9281974712906</v>
+        <v>371.9281974712905</v>
       </c>
       <c r="Y44" t="n">
         <v>365.6092959720189</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448713</v>
+        <v>63.09628120448711</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705892</v>
+        <v>10.89362580705968</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
@@ -4195,7 +4195,7 @@
         <v>243.2197513454117</v>
       </c>
       <c r="W46" t="n">
-        <v>236.4292784165725</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X46" t="n">
         <v>204.4636562160132</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>429.3483130941589</v>
+        <v>904.4872017519897</v>
       </c>
       <c r="C2" t="n">
-        <v>406.4879871478631</v>
+        <v>881.6268758056939</v>
       </c>
       <c r="D2" t="n">
-        <v>119.4687491278643</v>
+        <v>488.6122819117396</v>
       </c>
       <c r="E2" t="n">
-        <v>97.53221331612588</v>
+        <v>466.6757461000012</v>
       </c>
       <c r="F2" t="n">
-        <v>76.44843554593018</v>
+        <v>41.5515642894014</v>
       </c>
       <c r="G2" t="n">
-        <v>76.14977717578287</v>
+        <v>41.25290591925409</v>
       </c>
       <c r="H2" t="n">
-        <v>76.14977717578287</v>
+        <v>41.25290591925409</v>
       </c>
       <c r="I2" t="n">
         <v>41.25290591925409</v>
       </c>
       <c r="J2" t="n">
-        <v>403.8563647361496</v>
+        <v>41.25290591925409</v>
       </c>
       <c r="K2" t="n">
-        <v>403.8563647361496</v>
+        <v>551.7576166700235</v>
       </c>
       <c r="L2" t="n">
-        <v>403.8563647361496</v>
+        <v>551.7576166700235</v>
       </c>
       <c r="M2" t="n">
-        <v>403.8563647361496</v>
+        <v>1041.635874461166</v>
       </c>
       <c r="N2" t="n">
-        <v>467.9940600750802</v>
+        <v>1552.140585211935</v>
       </c>
       <c r="O2" t="n">
-        <v>978.4987708258495</v>
+        <v>1552.140585211935</v>
       </c>
       <c r="P2" t="n">
-        <v>1489.003481576619</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="Q2" t="n">
-        <v>1945.088961080802</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R2" t="n">
         <v>2062.645295962704</v>
       </c>
       <c r="S2" t="n">
-        <v>2062.645295962704</v>
+        <v>1958.278001835845</v>
       </c>
       <c r="T2" t="n">
-        <v>2062.645295962704</v>
+        <v>1737.352430880478</v>
       </c>
       <c r="U2" t="n">
-        <v>2062.645295962704</v>
+        <v>1737.352430880478</v>
       </c>
       <c r="V2" t="n">
-        <v>2062.645295962704</v>
+        <v>1737.352430880478</v>
       </c>
       <c r="W2" t="n">
-        <v>1666.253946263051</v>
+        <v>1737.352430880478</v>
       </c>
       <c r="X2" t="n">
-        <v>1254.533947430799</v>
+        <v>1325.632432048225</v>
       </c>
       <c r="Y2" t="n">
-        <v>849.196677385689</v>
+        <v>1324.33556604352</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>41.25290591925409</v>
       </c>
       <c r="I3" t="n">
-        <v>48.69954888116593</v>
+        <v>46.7289149678648</v>
       </c>
       <c r="J3" t="n">
-        <v>320.397038160757</v>
+        <v>318.4264042474559</v>
       </c>
       <c r="K3" t="n">
-        <v>830.9017489115263</v>
+        <v>828.9311149982252</v>
       </c>
       <c r="L3" t="n">
-        <v>1341.406459662296</v>
+        <v>828.9311149982252</v>
       </c>
       <c r="M3" t="n">
-        <v>1767.921226415061</v>
+        <v>1339.435825748995</v>
       </c>
       <c r="N3" t="n">
-        <v>1767.921226415061</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="O3" t="n">
-        <v>1767.921226415061</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="P3" t="n">
-        <v>1767.921226415061</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>1767.921226415061</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
         <v>1849.940536499764</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.9940373000621</v>
+        <v>980.6377599516453</v>
       </c>
       <c r="C4" t="n">
-        <v>141.0214741789781</v>
+        <v>808.6651968305613</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0214741789781</v>
+        <v>645.348423957332</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0214741789781</v>
+        <v>479.1402181101855</v>
       </c>
       <c r="F4" t="n">
-        <v>141.0214741789781</v>
+        <v>307.278443884746</v>
       </c>
       <c r="G4" t="n">
         <v>141.0214741789781</v>
@@ -4486,52 +4486,52 @@
         <v>41.25290591925409</v>
       </c>
       <c r="J4" t="n">
-        <v>41.25290591925409</v>
+        <v>98.74423414341211</v>
       </c>
       <c r="K4" t="n">
-        <v>267.7805071250913</v>
+        <v>325.2718353492493</v>
       </c>
       <c r="L4" t="n">
-        <v>622.4698284195121</v>
+        <v>679.9611566436701</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.655623389763</v>
+        <v>1039.126444485005</v>
       </c>
       <c r="N4" t="n">
-        <v>1391.147134265799</v>
+        <v>1416.61795536104</v>
       </c>
       <c r="O4" t="n">
-        <v>1645.045953800041</v>
+        <v>1772.046084040804</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.645165721942</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="Q4" t="n">
         <v>2062.645295962704</v>
       </c>
       <c r="R4" t="n">
-        <v>2015.606682649878</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S4" t="n">
-        <v>2015.606682649878</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="T4" t="n">
-        <v>1772.267334875778</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="U4" t="n">
-        <v>1528.630542096039</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="V4" t="n">
-        <v>1246.919074704068</v>
+        <v>1914.562797355651</v>
       </c>
       <c r="W4" t="n">
-        <v>972.0666708765807</v>
+        <v>1639.710393528164</v>
       </c>
       <c r="X4" t="n">
-        <v>729.5027743223858</v>
+        <v>1397.146496973969</v>
       </c>
       <c r="Y4" t="n">
-        <v>503.1600060121278</v>
+        <v>1170.803728663711</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.9701437626245</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4574,43 +4574,43 @@
         <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="N5" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="O5" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1696.494830002562</v>
       </c>
-      <c r="O5" t="n">
-        <v>2224.911252462377</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2224.911252462377</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2152.580309506745</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2163.262063061797</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>2163.262063061797</v>
       </c>
       <c r="V5" t="n">
-        <v>1899.61838738015</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="W5" t="n">
-        <v>1503.227037680497</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>1091.507038848244</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>686.1697688031346</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.615903911738</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>143.643340790654</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4747,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1531.252408707715</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1249.540941315744</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>974.6885374882565</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>732.1246409340616</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>505.7818726238037</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.9297397222204</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>107.0694137759246</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4805,25 +4805,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4835,19 +4835,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1212.675578485385</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>800.9555796531324</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y8" t="n">
-        <v>395.6183096080227</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4984,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="11">
@@ -5015,73 +5015,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988734</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883224</v>
+        <v>435.067963188322</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623569</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2110.0395278175</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.0699265966</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747412</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.49385590534</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5115,28 +5115,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7493563677403</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7493563677403</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>109.7493563677403</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>1165.735894343786</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1019.226866224298</v>
+        <v>1155.589460012877</v>
       </c>
       <c r="C13" t="n">
-        <v>847.2543031032135</v>
+        <v>983.6168968917929</v>
       </c>
       <c r="D13" t="n">
-        <v>683.9375302299842</v>
+        <v>820.3001240185636</v>
       </c>
       <c r="E13" t="n">
-        <v>517.7293243828377</v>
+        <v>654.0919181714171</v>
       </c>
       <c r="F13" t="n">
-        <v>345.8675501573982</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
         <v>345.8675501573982</v>
@@ -5200,49 +5200,49 @@
         <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358243</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>741.010964130245</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100496</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976532</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656295</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578196</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2240.195415692483</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S13" t="n">
-        <v>2240.195415692483</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="T13" t="n">
-        <v>2240.195415692483</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>1960.010967192787</v>
+        <v>1712.153331232335</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.299499800816</v>
+        <v>1430.441863840364</v>
       </c>
       <c r="W13" t="n">
-        <v>1678.299499800816</v>
+        <v>1155.589460012877</v>
       </c>
       <c r="X13" t="n">
-        <v>1435.735603246621</v>
+        <v>1155.589460012877</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.392834936363</v>
+        <v>1155.589460012877</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5276,25 +5276,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291425</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q14" t="n">
         <v>5115.135670291425</v>
@@ -5309,7 +5309,7 @@
         <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
         <v>4173.998480931861</v>
@@ -5318,7 +5318,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5370,13 +5370,13 @@
         <v>692.7876399741681</v>
       </c>
       <c r="O15" t="n">
-        <v>692.7876399741681</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1408.985357012666</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.130833875445</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>818.4078435766717</v>
+        <v>681.1568861517112</v>
       </c>
       <c r="C16" t="n">
-        <v>646.4352804555876</v>
+        <v>509.1843230306272</v>
       </c>
       <c r="D16" t="n">
-        <v>483.1185075823583</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="E16" t="n">
-        <v>483.1185075823583</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="F16" t="n">
-        <v>311.2567333569187</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G16" t="n">
-        <v>311.2567333569187</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4604648650732</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5461,25 +5461,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1477.48047715319</v>
+        <v>1340.22951972823</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.48047715319</v>
+        <v>1340.22951972823</v>
       </c>
       <c r="X16" t="n">
-        <v>1234.916580598995</v>
+        <v>1097.665623174035</v>
       </c>
       <c r="Y16" t="n">
-        <v>1008.573812288737</v>
+        <v>871.3228548637769</v>
       </c>
     </row>
     <row r="17">
@@ -5516,13 +5516,13 @@
         <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2110.0395278175</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
         <v>2988.0699265966</v>
@@ -5552,7 +5552,7 @@
         <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5592,25 +5592,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.2543031032135</v>
+        <v>853.018660377151</v>
       </c>
       <c r="C19" t="n">
-        <v>847.2543031032135</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9375302299842</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="E19" t="n">
         <v>517.7293243828377</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655525</v>
@@ -5695,28 +5695,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2158.673644960758</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2158.673644960758</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1878.489196461062</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1596.777729069091</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325703</v>
+        <v>1321.925325241604</v>
       </c>
       <c r="X19" t="n">
-        <v>960.0641767715083</v>
+        <v>1079.361428687409</v>
       </c>
       <c r="Y19" t="n">
-        <v>960.0641767715083</v>
+        <v>853.018660377151</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5829,25 +5829,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>703.5067984699893</v>
+        <v>834.4360146577219</v>
       </c>
       <c r="C22" t="n">
-        <v>703.5067984699893</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D22" t="n">
-        <v>540.1900255967599</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E22" t="n">
-        <v>540.1900255967599</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655525</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5935,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1430.441863840363</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.589460012876</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X22" t="n">
-        <v>913.0255634586813</v>
+        <v>1024.601983369788</v>
       </c>
       <c r="Y22" t="n">
-        <v>703.5067984699893</v>
+        <v>1024.601983369788</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6069,25 +6069,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>747.4857348434895</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C25" t="n">
-        <v>747.4857348434895</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D25" t="n">
-        <v>584.1689619702602</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E25" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058286</v>
@@ -6169,28 +6169,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.832373618938</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="X25" t="n">
-        <v>1163.994471865813</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y25" t="n">
-        <v>937.6517035555551</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6224,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6306,25 +6306,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.9291292906432</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C28" t="n">
-        <v>617.9565661695592</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>454.6397932963299</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>288.4315874491834</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058286</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058286</v>
@@ -6388,46 +6388,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302449</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O28" t="n">
         <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q28" t="n">
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1672.5839063855</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1672.5839063855</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>1672.5839063855</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906431</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y28" t="n">
-        <v>789.9291292906432</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6543,25 +6543,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>770.0572249530562</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C31" t="n">
-        <v>598.0846618319722</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="D31" t="n">
-        <v>434.7678889587429</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E31" t="n">
-        <v>268.5596831115964</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058286</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058286</v>
@@ -6643,28 +6643,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.832373618938</v>
+        <v>985.4544125320109</v>
       </c>
       <c r="X31" t="n">
-        <v>1033.268477064743</v>
+        <v>742.890515977816</v>
       </c>
       <c r="Y31" t="n">
-        <v>960.2231936651219</v>
+        <v>742.8905159778162</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6777,28 +6777,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>730.647150085061</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>534.988354024243</v>
+        <v>498.1492231716369</v>
       </c>
       <c r="C34" t="n">
-        <v>373.2152733633834</v>
+        <v>336.3761425107771</v>
       </c>
       <c r="D34" t="n">
-        <v>373.2152733633834</v>
+        <v>336.3761425107771</v>
       </c>
       <c r="E34" t="n">
-        <v>373.2152733633834</v>
+        <v>263.9650051710439</v>
       </c>
       <c r="F34" t="n">
-        <v>211.5529815981683</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G34" t="n">
-        <v>191.8717992053281</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H34" t="n">
-        <v>191.8717992053281</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>169.7905543892525</v>
+        <v>169.7905543892523</v>
       </c>
       <c r="K34" t="n">
-        <v>406.3146683543557</v>
+        <v>406.3146683543553</v>
       </c>
       <c r="L34" t="n">
-        <v>771.0005024080424</v>
+        <v>771.0005024080417</v>
       </c>
       <c r="M34" t="n">
-        <v>1172.182810137559</v>
+        <v>1172.182810137558</v>
       </c>
       <c r="N34" t="n">
-        <v>1559.670833772861</v>
+        <v>1559.67083377286</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.09547521189</v>
+        <v>1925.095475211889</v>
       </c>
       <c r="P34" t="n">
-        <v>2225.691199893057</v>
+        <v>2225.691199893055</v>
       </c>
       <c r="Q34" t="n">
-        <v>2362.687842893085</v>
+        <v>2362.687842893083</v>
       </c>
       <c r="R34" t="n">
-        <v>2362.687842893085</v>
+        <v>2325.84871204048</v>
       </c>
       <c r="S34" t="n">
-        <v>2202.752277872444</v>
+        <v>2165.913147019839</v>
       </c>
       <c r="T34" t="n">
-        <v>1969.612412558569</v>
+        <v>1932.773281705964</v>
       </c>
       <c r="U34" t="n">
-        <v>1699.627446519097</v>
+        <v>1662.788315666493</v>
       </c>
       <c r="V34" t="n">
-        <v>1428.115461587351</v>
+        <v>1391.276330734745</v>
       </c>
       <c r="W34" t="n">
-        <v>1163.462540220088</v>
+        <v>1126.623409367483</v>
       </c>
       <c r="X34" t="n">
-        <v>931.0981261261177</v>
+        <v>894.258995273512</v>
       </c>
       <c r="Y34" t="n">
-        <v>714.9548402760843</v>
+        <v>678.1157094234783</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220165</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.721261114919</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181374</v>
+        <v>1500.463591181375</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815401</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
@@ -6935,28 +6935,28 @@
         <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K35" t="n">
-        <v>1169.406598900327</v>
+        <v>806.8031400834319</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.424803215116</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="M35" t="n">
-        <v>1461.424803215116</v>
+        <v>2035.066617601202</v>
       </c>
       <c r="N35" t="n">
-        <v>2437.675861701817</v>
+        <v>3011.317676087903</v>
       </c>
       <c r="O35" t="n">
-        <v>3282.820511852629</v>
+        <v>3856.462326238715</v>
       </c>
       <c r="P35" t="n">
-        <v>3991.099791010557</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q35" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R35" t="n">
         <v>4564.741605396643</v>
@@ -6971,16 +6971,16 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562894</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630241</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="L36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="M36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="N36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="O36" t="n">
-        <v>719.6392687871653</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P36" t="n">
-        <v>1435.836985825663</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q36" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223612</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305863</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648939</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209085</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965948</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H37" t="n">
         <v>155.0284494862027</v>
@@ -7099,7 +7099,7 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090889</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238253</v>
@@ -7126,13 +7126,13 @@
         <v>2201.842546468938</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.693048850697</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X37" t="n">
         <v>1266.670133721406</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220165</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.721261114919</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D38" t="n">
-        <v>1500.463591181374</v>
+        <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815401</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7205,19 +7205,19 @@
         <v>4311.518642077324</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562894</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630241</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J39" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K39" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L39" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="M39" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="N39" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6199587024621</v>
+        <v>719.6392687871653</v>
       </c>
       <c r="P39" t="n">
-        <v>1353.81767574096</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q39" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R39" t="n">
         <v>1899.982462688443</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619901</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223604</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305853</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648931</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
         <v>393.0117859209078</v>
@@ -7333,34 +7333,34 @@
         <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557546</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090887</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O40" t="n">
-        <v>2066.015649511879</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P40" t="n">
-        <v>2391.932716792693</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q40" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U40" t="n">
         <v>1957.693048850696</v>
@@ -7388,7 +7388,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
@@ -7397,40 +7397,40 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815415</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524443</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793336</v>
       </c>
       <c r="I41" t="n">
         <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
-        <v>453.8982909248284</v>
+        <v>101.155468562867</v>
       </c>
       <c r="K41" t="n">
-        <v>1169.406598900327</v>
+        <v>101.155468562867</v>
       </c>
       <c r="L41" t="n">
-        <v>2099.031646519604</v>
+        <v>1030.780516182144</v>
       </c>
       <c r="M41" t="n">
-        <v>2099.031646519604</v>
+        <v>2035.066617601202</v>
       </c>
       <c r="N41" t="n">
-        <v>2437.675861701817</v>
+        <v>3011.317676087903</v>
       </c>
       <c r="O41" t="n">
-        <v>3282.820511852629</v>
+        <v>3856.462326238715</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.099791010557</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R41" t="n">
         <v>4564.741605396643</v>
@@ -7485,25 +7485,25 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J42" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K42" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L42" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="M42" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="N42" t="n">
-        <v>1188.056421542715</v>
+        <v>294.303467638473</v>
       </c>
       <c r="O42" t="n">
-        <v>1899.982462688443</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="P42" t="n">
         <v>1899.982462688443</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619908</v>
+        <v>922.2312984619901</v>
       </c>
       <c r="C43" t="n">
-        <v>786.293686222361</v>
+        <v>786.2936862223604</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305858</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648936</v>
+        <v>528.8386092648931</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209082</v>
+        <v>393.0117859209077</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965947</v>
+        <v>262.789767096594</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862026</v>
       </c>
       <c r="I43" t="n">
         <v>91.29483210793285</v>
@@ -7573,7 +7573,7 @@
         <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090886</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238253</v>
@@ -7582,13 +7582,13 @@
         <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
-        <v>2066.015649511878</v>
+        <v>2066.015649511879</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R43" t="n">
         <v>2543.247039960995</v>
@@ -7597,22 +7597,22 @@
         <v>2409.146943361584</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468939</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850697</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292601</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D44" t="n">
         <v>1500.463591181375</v>
@@ -7634,10 +7634,10 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.432371281541</v>
+        <v>721.4323712815417</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H44" t="n">
         <v>91.29483210793285</v>
@@ -7649,25 +7649,25 @@
         <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>1169.406598900327</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="L44" t="n">
-        <v>2099.031646519604</v>
+        <v>1383.523338544105</v>
       </c>
       <c r="M44" t="n">
-        <v>2099.031646519604</v>
+        <v>2387.809439963163</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701817</v>
+        <v>3364.060498449864</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.820511852629</v>
+        <v>4209.205148600677</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010557</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R44" t="n">
         <v>4564.741605396643</v>
@@ -7679,10 +7679,10 @@
         <v>4311.518642077324</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562894</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W44" t="n">
         <v>3407.387820744696</v>
@@ -7722,31 +7722,31 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J45" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K45" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L45" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="M45" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="N45" t="n">
-        <v>637.6199587024621</v>
+        <v>1010.501184676971</v>
       </c>
       <c r="O45" t="n">
-        <v>637.6199587024621</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P45" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q45" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R45" t="n">
         <v>1899.982462688443</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619898</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223601</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305849</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648927</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209074</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965938</v>
       </c>
       <c r="H46" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862024</v>
       </c>
       <c r="I46" t="n">
         <v>91.29483210793285</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910044</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557549</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090889</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M46" t="n">
         <v>1262.460299238253</v>
@@ -7825,22 +7825,22 @@
         <v>2391.932716792692</v>
       </c>
       <c r="Q46" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T46" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U46" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850695</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.016532340178</v>
       </c>
       <c r="W46" t="n">
         <v>1473.199079394146</v>
@@ -7849,7 +7849,7 @@
         <v>1266.670133721405</v>
       </c>
       <c r="Y46" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292601</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>551.4259247854854</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>532.2577859207876</v>
       </c>
       <c r="N2" t="n">
-        <v>102.0651736818507</v>
+        <v>552.9409468251222</v>
       </c>
       <c r="O2" t="n">
-        <v>553.0522833467003</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>553.2366858009075</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>21.70370902132395</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8061,13 +8061,13 @@
         <v>538.0605578240095</v>
       </c>
       <c r="L3" t="n">
-        <v>538.1764107049057</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9197772322928</v>
+        <v>538.7581045030041</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>537.0043522042178</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8079,7 +8079,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8143,19 +8143,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>385.368659933238</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>278.962641573417</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,22 +8222,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>108.094208435838</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,28 +8289,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733348</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,28 +8453,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8547,13 +8547,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3767193553316</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8696,10 +8696,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>423.2283679410452</v>
       </c>
       <c r="N11" t="n">
-        <v>924.179015540608</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8711,7 +8711,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,31 +8763,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>50.69326316713236</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8936,16 +8936,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>394.7585026918598</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>218.8019602115997</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9018,7 +9018,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
@@ -9027,7 +9027,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>61.91484879908644</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>924.179015540608</v>
+        <v>632.4842746885278</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9240,28 +9240,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9477,28 +9477,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,10 +9644,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N23" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9717,13 +9717,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9732,13 +9732,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9887,10 +9887,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9954,28 +9954,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,10 +10127,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10191,28 +10191,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,10 +10367,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10440,16 +10440,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>333.2799255788743</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>339.0862425948796</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10604,10 +10604,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10677,7 +10677,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>657.8632399032651</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
@@ -10686,7 +10686,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>292.2790261091175</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10914,7 +10914,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
@@ -10923,7 +10923,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>39.38019832895434</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>379.3444866548631</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11078,10 +11078,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11148,13 +11148,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>742.2891030007354</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11297,28 +11297,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>379.3444866548631</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>396.7030959475706</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>292.2790261091175</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,19 +11385,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.334310688136611e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.59543215801665</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.473105304488897</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.26470863247457</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>32.55524915534551</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.58253409333314</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>92.20024928613765</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>84.2203366938179</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.65576328835034</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>204.6491904234099</v>
       </c>
       <c r="X25" t="n">
-        <v>129.4187348530592</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.469971188974</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>129.2599664076899</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>135.6075668357896</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.7645100615303</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5861175088748</v>
+        <v>151.586117508875</v>
       </c>
       <c r="E34" t="n">
-        <v>154.4486361530528</v>
+        <v>82.76161018671711</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>135.0125418041762</v>
+        <v>154.4969123730882</v>
       </c>
       <c r="H34" t="n">
-        <v>132.2608181713049</v>
+        <v>132.2608181713052</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.6733949415048</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.47073954407638</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-6.647689933720639e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661447.136964692</v>
+        <v>661447.1369646922</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661447.1369646922</v>
+        <v>661447.1369646919</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661447.136964692</v>
+        <v>661447.1369646922</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661447.1369646922</v>
+        <v>661447.1369646919</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667658.0272918543</v>
+        <v>667658.0272918541</v>
       </c>
     </row>
     <row r="13">
@@ -26314,28 +26314,28 @@
         <v>393148.800907535</v>
       </c>
       <c r="C2" t="n">
-        <v>393148.8009075351</v>
+        <v>393148.8009075352</v>
       </c>
       <c r="D2" t="n">
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
-        <v>379370.5221177767</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="F2" t="n">
         <v>379370.5221177768</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177768</v>
       </c>
       <c r="H2" t="n">
         <v>379370.5221177769</v>
       </c>
       <c r="I2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="J2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177768</v>
       </c>
       <c r="K2" t="n">
         <v>379370.5221177769</v>
@@ -26344,16 +26344,16 @@
         <v>383270.3834859948</v>
       </c>
       <c r="M2" t="n">
-        <v>393148.800907535</v>
+        <v>393148.8009075344</v>
       </c>
       <c r="N2" t="n">
         <v>393148.800907535</v>
       </c>
       <c r="O2" t="n">
-        <v>393148.8009075345</v>
+        <v>393148.8009075351</v>
       </c>
       <c r="P2" t="n">
-        <v>393148.800907535</v>
+        <v>393148.8009075347</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>134919.6914542165</v>
@@ -26393,16 +26393,16 @@
         <v>10440.5161731019</v>
       </c>
       <c r="L3" t="n">
-        <v>8077.990108497763</v>
+        <v>8077.990108497586</v>
       </c>
       <c r="M3" t="n">
-        <v>166235.4618077716</v>
+        <v>166235.4618077718</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177561.2585182888</v>
+        <v>178353.3109365891</v>
       </c>
       <c r="C4" t="n">
-        <v>169735.5491683248</v>
+        <v>170567.7535350462</v>
       </c>
       <c r="D4" t="n">
-        <v>169735.5491683248</v>
+        <v>170567.7535350462</v>
       </c>
       <c r="E4" t="n">
-        <v>50986.9454883114</v>
+        <v>52368.64529000878</v>
       </c>
       <c r="F4" t="n">
-        <v>50986.94548831141</v>
+        <v>52368.64529000878</v>
       </c>
       <c r="G4" t="n">
-        <v>50986.94548831142</v>
+        <v>52368.64529000882</v>
       </c>
       <c r="H4" t="n">
-        <v>50986.94548831144</v>
+        <v>52368.64529000883</v>
       </c>
       <c r="I4" t="n">
-        <v>50986.94548831142</v>
+        <v>52368.6452900088</v>
       </c>
       <c r="J4" t="n">
-        <v>50986.94548831141</v>
+        <v>52368.6452900088</v>
       </c>
       <c r="K4" t="n">
-        <v>50986.94548831141</v>
+        <v>52368.6452900088</v>
       </c>
       <c r="L4" t="n">
-        <v>54309.52213405156</v>
+        <v>55691.22193574888</v>
       </c>
       <c r="M4" t="n">
-        <v>83120.65051398377</v>
+        <v>84397.70825943389</v>
       </c>
       <c r="N4" t="n">
-        <v>83120.65051398377</v>
+        <v>84397.70825943392</v>
       </c>
       <c r="O4" t="n">
-        <v>83120.65051398374</v>
+        <v>84397.70825943392</v>
       </c>
       <c r="P4" t="n">
-        <v>83120.65051398377</v>
+        <v>84397.70825943392</v>
       </c>
     </row>
     <row r="5">
@@ -26497,7 +26497,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>78598.94787646881</v>
+        <v>78598.9478764688</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482541</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22202.23598911426</v>
+        <v>-22994.28840741458</v>
       </c>
       <c r="C6" t="n">
-        <v>142861.1572315834</v>
+        <v>142028.952864862</v>
       </c>
       <c r="D6" t="n">
-        <v>155967.0007017822</v>
+        <v>155134.7963350608</v>
       </c>
       <c r="E6" t="n">
-        <v>34894.15788439522</v>
+        <v>33461.42742051366</v>
       </c>
       <c r="F6" t="n">
-        <v>250633.5144410357</v>
+        <v>249200.7839771541</v>
       </c>
       <c r="G6" t="n">
-        <v>250633.5144410359</v>
+        <v>249200.7839771541</v>
       </c>
       <c r="H6" t="n">
-        <v>250633.5144410357</v>
+        <v>249200.7839771542</v>
       </c>
       <c r="I6" t="n">
-        <v>250633.5144410357</v>
+        <v>249200.7839771541</v>
       </c>
       <c r="J6" t="n">
-        <v>115713.8229868194</v>
+        <v>114281.0925229376</v>
       </c>
       <c r="K6" t="n">
-        <v>240192.9982679339</v>
+        <v>238760.2678040522</v>
       </c>
       <c r="L6" t="n">
-        <v>242283.9233669767</v>
+        <v>240865.6368340887</v>
       </c>
       <c r="M6" t="n">
-        <v>71409.48812095419</v>
+        <v>70132.43037550338</v>
       </c>
       <c r="N6" t="n">
-        <v>237644.9499287258</v>
+        <v>236367.8921832757</v>
       </c>
       <c r="O6" t="n">
-        <v>237644.9499287253</v>
+        <v>236367.8921832757</v>
       </c>
       <c r="P6" t="n">
-        <v>237644.9499287258</v>
+        <v>236367.8921832754</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
     </row>
     <row r="3">
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="M2" t="n">
-        <v>25.57711373701746</v>
+        <v>25.57711373701766</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>515.6613239906761</v>
@@ -27382,13 +27382,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>134.9106489670509</v>
+        <v>29.97524665183499</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,13 +27439,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27540,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>36.18217916275745</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>132.2926790970681</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>264.9722518585097</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>157.6836177392391</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>63.52994056050457</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.6181964616704</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27907,19 +27907,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>63.52994056050366</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="C34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="D34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="E34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="F34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="G34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="H34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="I34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="J34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="K34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="L34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="M34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="N34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="O34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="P34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="R34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="S34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="T34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="U34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="V34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="W34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="X34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.0974876356222</v>
+        <v>10.09748763562198</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137264055</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137264055</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137264041</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137264044</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263966</v>
+        <v>35.67460137263968</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>494.8265230213558</v>
       </c>
       <c r="N2" t="n">
-        <v>64.78555084740465</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="O2" t="n">
-        <v>515.6613239906761</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>515.6613239906761</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>5.531322271323946</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34781,13 +34781,13 @@
         <v>515.6613239906761</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>515.6613239906761</v>
       </c>
-      <c r="M3" t="n">
-        <v>430.8229967199648</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34799,7 +34799,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34863,19 +34863,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>362.7932200417521</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>256.4634540749926</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,22 +34942,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,28 +35009,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597932</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35267,13 +35267,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>444.6058781505029</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35416,10 +35416,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>385.7971050416133</v>
       </c>
       <c r="N11" t="n">
-        <v>886.899392706162</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35431,7 +35431,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>29.35023495359069</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35656,16 +35656,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>357.4788798574138</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>181.2265984013684</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
@@ -35747,7 +35747,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>886.899392706162</v>
+        <v>595.2046518540817</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,10 +36364,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N23" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36607,10 +36607,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,10 +36847,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,10 +37087,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37160,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.16953634689293</v>
+        <v>68.16953634689271</v>
       </c>
       <c r="K34" t="n">
-        <v>238.9132464293971</v>
+        <v>238.9132464293969</v>
       </c>
       <c r="L34" t="n">
-        <v>368.3695293471583</v>
+        <v>368.3695293471581</v>
       </c>
       <c r="M34" t="n">
-        <v>405.2346542722392</v>
+        <v>405.234654272239</v>
       </c>
       <c r="N34" t="n">
-        <v>391.4020440760624</v>
+        <v>391.4020440760622</v>
       </c>
       <c r="O34" t="n">
-        <v>369.1157994333627</v>
+        <v>369.1157994333624</v>
       </c>
       <c r="P34" t="n">
-        <v>303.6320451324919</v>
+        <v>303.6320451324917</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.3804474747757</v>
+        <v>138.3804474747755</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>294.9678831462513</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>301.6549796954478</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37324,10 +37324,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>634.6913501810429</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
@@ -37406,7 +37406,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391038</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
@@ -37643,7 +37643,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391038</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>9.960238843367817</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>342.0648638204171</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37798,10 +37798,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,13 +37868,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
-        <v>719.1172132785132</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391038</v>
+        <v>93.7466500839104</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -37944,16 +37944,16 @@
         <v>393.9466430841758</v>
       </c>
       <c r="M43" t="n">
-        <v>430.8117680092566</v>
+        <v>430.8117680092567</v>
       </c>
       <c r="N43" t="n">
-        <v>416.9791578130798</v>
+        <v>416.9791578130799</v>
       </c>
       <c r="O43" t="n">
-        <v>394.6929131703801</v>
+        <v>394.6929131703802</v>
       </c>
       <c r="P43" t="n">
-        <v>329.2091588695093</v>
+        <v>329.2091588695094</v>
       </c>
       <c r="Q43" t="n">
         <v>163.9575612117931</v>
@@ -38017,28 +38017,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>342.0648638204171</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>359.1277341373393</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391038</v>
+        <v>93.7466500839104</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
@@ -38181,16 +38181,16 @@
         <v>393.9466430841758</v>
       </c>
       <c r="M46" t="n">
-        <v>430.8117680092566</v>
+        <v>430.8117680092567</v>
       </c>
       <c r="N46" t="n">
-        <v>416.9791578130798</v>
+        <v>416.9791578130799</v>
       </c>
       <c r="O46" t="n">
-        <v>394.6929131703801</v>
+        <v>394.6929131703802</v>
       </c>
       <c r="P46" t="n">
-        <v>329.2091588695093</v>
+        <v>329.2091588695094</v>
       </c>
       <c r="Q46" t="n">
         <v>163.9575612117931</v>
